--- a/data/hotels_by_city/Dallas/Dallas_shard_690.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_690.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,267 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r583695249-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>56567</t>
+  </si>
+  <si>
+    <t>11676807</t>
+  </si>
+  <si>
+    <t>583695249</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Wonderful wedding visit!</t>
+  </si>
+  <si>
+    <t>We just enjoyed a lovely time at this beautiful hotel! We felt very welcomed upon arrival by the front desk crew “Vee” and Karen. They answered our questions and then advised us to walk down the hill to find the delightful assortment of restaurants, fountains, movie theater, and harbor views. They were also so calm and professional while dealing with our elderly relatives difficulties. The hotel rooms were spacious, fresh, clean &amp; comfy. The daily breakfast was yummy &amp; constantly replenished during the morning rush. They were helpful during our frequent comings &amp; goings for the wedding activities in Terrell. We will definitely recommend this hotel to our friends &amp; relatives, &amp; hope to stay again soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We just enjoyed a lovely time at this beautiful hotel! We felt very welcomed upon arrival by the front desk crew “Vee” and Karen. They answered our questions and then advised us to walk down the hill to find the delightful assortment of restaurants, fountains, movie theater, and harbor views. They were also so calm and professional while dealing with our elderly relatives difficulties. The hotel rooms were spacious, fresh, clean &amp; comfy. The daily breakfast was yummy &amp; constantly replenished during the morning rush. They were helpful during our frequent comings &amp; goings for the wedding activities in Terrell. We will definitely recommend this hotel to our friends &amp; relatives, &amp; hope to stay again soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r580354991-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>580354991</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>Nice new modern hotel. Staff was friendly and the breakfast was good with plenty to choose from. The beds were very comfortable. Exercise room was nice and the pool looked nice with a small waterfall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r578169165-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>578169165</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights. Beautiful hotel. Very comfortable rooms. Fitness room very nice. The breakfast was excellent! The best breakfast I’ve had in a hotel. Lake view rooms. Walking distance to dining and entertainment. Would highly recommend and would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ruth P, Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights. Beautiful hotel. Very comfortable rooms. Fitness room very nice. The breakfast was excellent! The best breakfast I’ve had in a hotel. Lake view rooms. Walking distance to dining and entertainment. Would highly recommend and would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r571947629-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>571947629</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Love the area</t>
+  </si>
+  <si>
+    <t>We are from the area and stay in Rockwall whenever we are back to visit family.  This is a new hotel so it is clean. The good- great area for food and lake views. Breakfast was better on the weekends vs the weekdays with more options. I highly suggest shopping at Groovys and Carols Candles while your here. Love Gloria’s restaurant which is walking distance. The bad- when AC/heat isn’t running you can hear the highway noise. Also, if your on the top floor, you can hear the hvac units running up on the roof through your bathroom vents. At least that’s what I think the noise is coming from. I will be staying here again just not on the top floor. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Ruth P, Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>We are from the area and stay in Rockwall whenever we are back to visit family.  This is a new hotel so it is clean. The good- great area for food and lake views. Breakfast was better on the weekends vs the weekdays with more options. I highly suggest shopping at Groovys and Carols Candles while your here. Love Gloria’s restaurant which is walking distance. The bad- when AC/heat isn’t running you can hear the highway noise. Also, if your on the top floor, you can hear the hvac units running up on the roof through your bathroom vents. At least that’s what I think the noise is coming from. I will be staying here again just not on the top floor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r570241614-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>570241614</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We were very impressed by the hotel, employees very helpful, everything about it, only about six months old so that helps the,beds were great, room was quiet, lake view was a bonus. Breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We were very impressed by the hotel, employees very helpful, everything about it, only about six months old so that helps the,beds were great, room was quiet, lake view was a bonus. Breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r561366119-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>561366119</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Non-business</t>
+  </si>
+  <si>
+    <t>Immaculate,clean hotel. Jared is absolutely AMAZING. Friendly,helpful, and knowlegable. This hotel should have considered an indoor pool and hot tub. There were occasionally guests in the lounge that were very loud. Other than that, our stay was very pleasant. The manager was very accommodating for our early check-in.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r546488298-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>546488298</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent value stay</t>
+  </si>
+  <si>
+    <t>This fairly new hotel is excellent value compared to some of the nearby hotels, with large new rooms and great service. The rooms are large with a big double bed, shiny new shower/toilet/sink area, large sofa and desk space that by closing the sliding glass windows by the desk screen off the bed area. There is also a fridge/microwave and table if you want to stay in. There is a free breakfast area by reception, with a good range of hot and cold breakfast items. There is also a bar area in the evening and a small shop by reception. The hotel has a function room, a small gym, 2 internet desktops and a small laundry, powder from reception, the wash, powder and dry is about $5. Finally there is a small outdoor pool area with loungers. The hotel is situated close to the lake shopping area that has a cinema, bars and restaurants within a few minutes walk. The only downside was the adjacent Interstate that was quite noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Ruth P, Assistant General Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>This fairly new hotel is excellent value compared to some of the nearby hotels, with large new rooms and great service. The rooms are large with a big double bed, shiny new shower/toilet/sink area, large sofa and desk space that by closing the sliding glass windows by the desk screen off the bed area. There is also a fridge/microwave and table if you want to stay in. There is a free breakfast area by reception, with a good range of hot and cold breakfast items. There is also a bar area in the evening and a small shop by reception. The hotel has a function room, a small gym, 2 internet desktops and a small laundry, powder from reception, the wash, powder and dry is about $5. Finally there is a small outdoor pool area with loungers. The hotel is situated close to the lake shopping area that has a cinema, bars and restaurants within a few minutes walk. The only downside was the adjacent Interstate that was quite noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r542533726-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>542533726</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Looking for a place to stay for three nights close to Dallas and Rowlett, came across this hotel. The rooms are very spacious, the Hotel is less than 5 months old, the decor is modern. Walking distance to restaurants on the lake and movie theater. It is only 20 miles from downtown Dallas. The value on your nightly charge is outstanding.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r539967758-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>539967758</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel seems brand new and everything here smells brand new. Everything about this place is good, and there's nothing that'll disappoint you. I love the whole look of the interior of the hotel. Everything is clean and we'll maintained. The service is great, and most rates have breakfast included. The hotel is a little on the pricey side ($156/night when I booked it) but I think it may be because it's fairly new. Highly recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r525594507-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>525594507</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a wonderful experience at this SpringHill Suites! Anika checked us in Saturday night and was so gracious and helpful. Our room was spotless. Even though the air conditioner did blow directly on the bed, it was cool and quiet.We can't wait to return! </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r518311743-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>518311743</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Too bad about the AC</t>
+  </si>
+  <si>
+    <t>I would have rated this place a 5, if it were not for the AC that blows direct onto the bed.  The bed us about3 feet from the AC, and there's no way to divert the cold blast of air from the AC -- it kept me up the first 2 nights.  The 2nd 2 nights I actually turned it off and slept better, even though the room temp crept up to 75 during the night.  Then, I met a guy in the elevator who mentioned the same problem -- and said he placed the suitcase stand in front of the AC -- with the suitcase and a bunch of spare pillows to divert the airflow.  That worked quite well.Aside from the AC issue, it's a GREAT place.  Clean, great staff, good location.  Plenty of restaurants in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I would have rated this place a 5, if it were not for the AC that blows direct onto the bed.  The bed us about3 feet from the AC, and there's no way to divert the cold blast of air from the AC -- it kept me up the first 2 nights.  The 2nd 2 nights I actually turned it off and slept better, even though the room temp crept up to 75 during the night.  Then, I met a guy in the elevator who mentioned the same problem -- and said he placed the suitcase stand in front of the AC -- with the suitcase and a bunch of spare pillows to divert the airflow.  That worked quite well.Aside from the AC issue, it's a GREAT place.  Clean, great staff, good location.  Plenty of restaurants in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r509727764-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>509727764</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent --  5 Star</t>
+  </si>
+  <si>
+    <t>I am a Marriot Platinum member ... I give this a solid 5/5 ... This is now our GO TO hotel at Rockwall ... I had originally given a review for this new hotel a few weeks ago and gave it a 4 out of 5 due to the fact that I was actually staying there the first day (and week) they opened and they were going through some birthing issues ... HOWEVER .. I have stayed there twice after my initial review and am now giving it a solid 5/5 at this time  .. the management and staff have fixed any issue at all that they originally had ... I highly recommend this place ... It is in the middle of everything .. there must be 100 restaurants around them .. they are right next to the water ... right off the road ... hotel is less than a month old ... the staff is phenomenal (seriously) .... excellent breakfast ... plenty of parking ... easy to find ... still has that new hotel smell ...very high speed internet ... I would and will definitely stay here again ...MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a Marriot Platinum member ... I give this a solid 5/5 ... This is now our GO TO hotel at Rockwall ... I had originally given a review for this new hotel a few weeks ago and gave it a 4 out of 5 due to the fact that I was actually staying there the first day (and week) they opened and they were going through some birthing issues ... HOWEVER .. I have stayed there twice after my initial review and am now giving it a solid 5/5 at this time  .. the management and staff have fixed any issue at all that they originally had ... I highly recommend this place ... It is in the middle of everything .. there must be 100 restaurants around them .. they are right next to the water ... right off the road ... hotel is less than a month old ... the staff is phenomenal (seriously) .... excellent breakfast ... plenty of parking ... easy to find ... still has that new hotel smell ...very high speed internet ... I would and will definitely stay here again ...More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +906,720 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_690.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_690.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Shari S</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>We just enjoyed a lovely time at this beautiful hotel! We felt very welcomed upon arrival by the front desk crew “Vee” and Karen. They answered our questions and then advised us to walk down the hill to find the delightful assortment of restaurants, fountains, movie theater, and harbor views. They were also so calm and professional while dealing with our elderly relatives difficulties. The hotel rooms were spacious, fresh, clean &amp; comfy. The daily breakfast was yummy &amp; constantly replenished during the morning rush. They were helpful during our frequent comings &amp; goings for the wedding activities in Terrell. We will definitely recommend this hotel to our friends &amp; relatives, &amp; hope to stay again soon!More</t>
   </si>
   <si>
+    <t>NonnieR29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r580354991-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>Nice new modern hotel. Staff was friendly and the breakfast was good with plenty to choose from. The beds were very comfortable. Exercise room was nice and the pool looked nice with a small waterfall.</t>
   </si>
   <si>
+    <t>brendaholmes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r578169165-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>We stayed 2 nights. Beautiful hotel. Very comfortable rooms. Fitness room very nice. The breakfast was excellent! The best breakfast I’ve had in a hotel. Lake view rooms. Walking distance to dining and entertainment. Would highly recommend and would stay again. More</t>
   </si>
   <si>
+    <t>Shannon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r571947629-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>We are from the area and stay in Rockwall whenever we are back to visit family.  This is a new hotel so it is clean. The good- great area for food and lake views. Breakfast was better on the weekends vs the weekdays with more options. I highly suggest shopping at Groovys and Carols Candles while your here. Love Gloria’s restaurant which is walking distance. The bad- when AC/heat isn’t running you can hear the highway noise. Also, if your on the top floor, you can hear the hvac units running up on the roof through your bathroom vents. At least that’s what I think the noise is coming from. I will be staying here again just not on the top floor. More</t>
   </si>
   <si>
+    <t>Dealer7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r570241614-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>We were very impressed by the hotel, employees very helpful, everything about it, only about six months old so that helps the,beds were great, room was quiet, lake view was a bonus. Breakfast was good.More</t>
   </si>
   <si>
+    <t>LissaWood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r561366119-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>daveashuk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r546488298-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>This fairly new hotel is excellent value compared to some of the nearby hotels, with large new rooms and great service. The rooms are large with a big double bed, shiny new shower/toilet/sink area, large sofa and desk space that by closing the sliding glass windows by the desk screen off the bed area. There is also a fridge/microwave and table if you want to stay in. There is a free breakfast area by reception, with a good range of hot and cold breakfast items. There is also a bar area in the evening and a small shop by reception. The hotel has a function room, a small gym, 2 internet desktops and a small laundry, powder from reception, the wash, powder and dry is about $5. Finally there is a small outdoor pool area with loungers. The hotel is situated close to the lake shopping area that has a cinema, bars and restaurants within a few minutes walk. The only downside was the adjacent Interstate that was quite noisy.More</t>
   </si>
   <si>
+    <t>Ysidro H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r542533726-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Gladwin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r539967758-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>This hotel seems brand new and everything here smells brand new. Everything about this place is good, and there's nothing that'll disappoint you. I love the whole look of the interior of the hotel. Everything is clean and we'll maintained. The service is great, and most rates have breakfast included. The hotel is a little on the pricey side ($156/night when I booked it) but I think it may be because it's fairly new. Highly recommend!</t>
   </si>
   <si>
+    <t>Jana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r525594507-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>942bob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r518311743-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -388,6 +421,9 @@
   </si>
   <si>
     <t>I would have rated this place a 5, if it were not for the AC that blows direct onto the bed.  The bed us about3 feet from the AC, and there's no way to divert the cold blast of air from the AC -- it kept me up the first 2 nights.  The 2nd 2 nights I actually turned it off and slept better, even though the room temp crept up to 75 during the night.  Then, I met a guy in the elevator who mentioned the same problem -- and said he placed the suitcase stand in front of the AC -- with the suitcase and a bunch of spare pillows to divert the airflow.  That worked quite well.Aside from the AC issue, it's a GREAT place.  Clean, great staff, good location.  Plenty of restaurants in walking distance.More</t>
+  </si>
+  <si>
+    <t>SoldierSam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r509727764-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -910,43 +946,47 @@
       <c r="A2" t="n">
         <v>65746</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>35804</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -960,50 +1000,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65746</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1017,50 +1061,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65746</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177768</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1072,56 +1120,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65746</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>3878</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1133,56 +1185,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65746</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177769</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1194,56 +1250,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65746</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177770</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1257,50 +1317,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65746</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177771</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1312,56 +1376,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65746</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177772</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1375,50 +1443,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65746</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177773</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1432,50 +1504,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65746</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>18890</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1489,50 +1565,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65746</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177774</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1550,50 +1630,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65746</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177775</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1611,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_690.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_690.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,139 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Shari S</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r605416106-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>56567</t>
+  </si>
+  <si>
+    <t>11676807</t>
+  </si>
+  <si>
+    <t>605416106</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very nice, quiet, newer hotel.  Everything was very clean, and the morning breakfast buffet was very good.  In a great location across from the Harbor District and Lake Ray Hubbard.  You have many restaurants and a movie theater within walking distance. The only few complaints that I have is that the pool was a little small, and we had to keep asking for extra towels in our room.  We are a family of four, and they kept giving us only three bath towels.  Other than these minor complaints, this a very nice hotel to stay in for the money. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r602723932-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>602723932</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Great Location for Family Reunion</t>
+  </si>
+  <si>
+    <t>A group of 15 stayed here due to us visiting the area for our family reunion. Due to the activities we had planned at the harbor and the Rockwall area this location was perfect! We could walk to the harbor from the hotel and we were 5 minutes or less away from restaurants, grocery stores, arcades etc. My children enjoyed the waffles for breakfast but I wish the breakfast area was bigger. I’m a mom of 3 and had to take our food back to the room because there wasn’t enough seating in breakfast area. (830 am)
+We had 2 double queen suites that were very spacious, clean and comfy! The only complaint regarding the rooms is that upon arrival the refrigerator wasn’t cold. We travel with meds that require refrigeration so that was the only down fall pertaining to the room. Also this was the first hotel we’ve stayed at that required us to press a button inside the mini fridge to keep it on every few hrs. This would have been something we would’ve wanted the front desk to let us know.
+The staff wasn’t too friendly when checking out. We didn’t get asked how was our stay or anything. I asked about the additional $50 charged to our total and was told that was just in case we wanted snacks. I would have liked to known about this when we checked in not while checking out. It...A group of 15 stayed here due to us visiting the area for our family reunion. Due to the activities we had planned at the harbor and the Rockwall area this location was perfect! We could walk to the harbor from the hotel and we were 5 minutes or less away from restaurants, grocery stores, arcades etc. My children enjoyed the waffles for breakfast but I wish the breakfast area was bigger. I’m a mom of 3 and had to take our food back to the room because there wasn’t enough seating in breakfast area. (830 am)We had 2 double queen suites that were very spacious, clean and comfy! The only complaint regarding the rooms is that upon arrival the refrigerator wasn’t cold. We travel with meds that require refrigeration so that was the only down fall pertaining to the room. Also this was the first hotel we’ve stayed at that required us to press a button inside the mini fridge to keep it on every few hrs. This would have been something we would’ve wanted the front desk to let us know.The staff wasn’t too friendly when checking out. We didn’t get asked how was our stay or anything. I asked about the additional $50 charged to our total and was told that was just in case we wanted snacks. I would have liked to known about this when we checked in not while checking out. It only took a few days for that money to fall back into our account. Lastly we  asked for additional towels to be in the room upon arrival via the website but didn’t get those. However whenever I called the front desk we were brought some within 10 mins. With that being said overall we were satisfied with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>A group of 15 stayed here due to us visiting the area for our family reunion. Due to the activities we had planned at the harbor and the Rockwall area this location was perfect! We could walk to the harbor from the hotel and we were 5 minutes or less away from restaurants, grocery stores, arcades etc. My children enjoyed the waffles for breakfast but I wish the breakfast area was bigger. I’m a mom of 3 and had to take our food back to the room because there wasn’t enough seating in breakfast area. (830 am)
+We had 2 double queen suites that were very spacious, clean and comfy! The only complaint regarding the rooms is that upon arrival the refrigerator wasn’t cold. We travel with meds that require refrigeration so that was the only down fall pertaining to the room. Also this was the first hotel we’ve stayed at that required us to press a button inside the mini fridge to keep it on every few hrs. This would have been something we would’ve wanted the front desk to let us know.
+The staff wasn’t too friendly when checking out. We didn’t get asked how was our stay or anything. I asked about the additional $50 charged to our total and was told that was just in case we wanted snacks. I would have liked to known about this when we checked in not while checking out. It...A group of 15 stayed here due to us visiting the area for our family reunion. Due to the activities we had planned at the harbor and the Rockwall area this location was perfect! We could walk to the harbor from the hotel and we were 5 minutes or less away from restaurants, grocery stores, arcades etc. My children enjoyed the waffles for breakfast but I wish the breakfast area was bigger. I’m a mom of 3 and had to take our food back to the room because there wasn’t enough seating in breakfast area. (830 am)We had 2 double queen suites that were very spacious, clean and comfy! The only complaint regarding the rooms is that upon arrival the refrigerator wasn’t cold. We travel with meds that require refrigeration so that was the only down fall pertaining to the room. Also this was the first hotel we’ve stayed at that required us to press a button inside the mini fridge to keep it on every few hrs. This would have been something we would’ve wanted the front desk to let us know.The staff wasn’t too friendly when checking out. We didn’t get asked how was our stay or anything. I asked about the additional $50 charged to our total and was told that was just in case we wanted snacks. I would have liked to known about this when we checked in not while checking out. It only took a few days for that money to fall back into our account. Lastly we  asked for additional towels to be in the room upon arrival via the website but didn’t get those. However whenever I called the front desk we were brought some within 10 mins. With that being said overall we were satisfied with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r602168475-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>602168475</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Stayed here for one night with my family. Got the queen doubles that accommodated 6 people. The suite was plenty big and bathroom spacious. Staff were very friendly and attentive. Grounds were kept up and hotel was super clean. The pool was not as big as other hotels but a big enough size to enjoy yourself in. Hotel will be a year old this July and still smelled like new too.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r589349054-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>589349054</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>I WILL DEFINITELY RETURN</t>
+  </si>
+  <si>
+    <t>I booked a wedding group block at this hotel. It's very new, beautifully designed. Breakfast was wonderful, the bed comfortable, and very easy to navigate. I appreciate the Sales staff whom I corresponded with, and the front desk staff were very pleasant and quick to help me with some last minute wedding activities I was trying to finish. Thank you V, and the night auditor with a pretty accent (I didnt catch her name)! I stayed in May but I still think about how much I enjoyed my stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Ruth P, Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>I booked a wedding group block at this hotel. It's very new, beautifully designed. Breakfast was wonderful, the bed comfortable, and very easy to navigate. I appreciate the Sales staff whom I corresponded with, and the front desk staff were very pleasant and quick to help me with some last minute wedding activities I was trying to finish. Thank you V, and the night auditor with a pretty accent (I didnt catch her name)! I stayed in May but I still think about how much I enjoyed my stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r585063269-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>585063269</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Very Helpful</t>
+  </si>
+  <si>
+    <t>My grandparents stayed in your hotel one night to break up a two day journey back to Stephenville, TX. The staff was accommodating and professional - especially the General Manager. We appreciate the customer service and southern hospitality.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r585061713-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>585061713</t>
+  </si>
+  <si>
+    <t>Extremely accommodating!</t>
+  </si>
+  <si>
+    <t>Karen, the GM, was so helpful in extending our family's stay when the hotel was near capacity.  Responded to my request promptly and went the extra mile to make it easy for us.  She not only extended the stay but delivered updated keys to the room!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r583695249-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
-    <t>56567</t>
-  </si>
-  <si>
-    <t>11676807</t>
-  </si>
-  <si>
     <t>583695249</t>
   </si>
   <si>
@@ -174,18 +292,9 @@
     <t>We just enjoyed a lovely time at this beautiful hotel! We felt very welcomed upon arrival by the front desk crew “Vee” and Karen. They answered our questions and then advised us to walk down the hill to find the delightful assortment of restaurants, fountains, movie theater, and harbor views. They were also so calm and professional while dealing with our elderly relatives difficulties. The hotel rooms were spacious, fresh, clean &amp; comfy. The daily breakfast was yummy &amp; constantly replenished during the morning rush. They were helpful during our frequent comings &amp; goings for the wedding activities in Terrell. We will definitely recommend this hotel to our friends &amp; relatives, &amp; hope to stay again soon!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We just enjoyed a lovely time at this beautiful hotel! We felt very welcomed upon arrival by the front desk crew “Vee” and Karen. They answered our questions and then advised us to walk down the hill to find the delightful assortment of restaurants, fountains, movie theater, and harbor views. They were also so calm and professional while dealing with our elderly relatives difficulties. The hotel rooms were spacious, fresh, clean &amp; comfy. The daily breakfast was yummy &amp; constantly replenished during the morning rush. They were helpful during our frequent comings &amp; goings for the wedding activities in Terrell. We will definitely recommend this hotel to our friends &amp; relatives, &amp; hope to stay again soon!More</t>
   </si>
   <si>
-    <t>NonnieR29</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r580354991-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -201,9 +310,6 @@
     <t>Nice new modern hotel. Staff was friendly and the breakfast was good with plenty to choose from. The beds were very comfortable. Exercise room was nice and the pool looked nice with a small waterfall.</t>
   </si>
   <si>
-    <t>brendaholmes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r578169165-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -231,7 +337,49 @@
     <t>We stayed 2 nights. Beautiful hotel. Very comfortable rooms. Fitness room very nice. The breakfast was excellent! The best breakfast I’ve had in a hotel. Lake view rooms. Walking distance to dining and entertainment. Would highly recommend and would stay again. More</t>
   </si>
   <si>
-    <t>Shannon S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r575041321-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>575041321</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>We just got home from a 3 night stay at this hotel.  We were extremely pleased with staff, cleanliness and breakfast.  Our room was very modern, fresh and clean.  We loved the decor  and furnishings.  The staff was very welcoming and would make a point to look up and say hi as we came and went.  We were able to walk to many locations.  The rooms were quiet and we slept well.  The breakfast buffet offered a great assortment of hot and cold food.  We have family that recently moved to Rockwall and we will tell other family and friends to stay here when they come to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Ruth P, Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>We just got home from a 3 night stay at this hotel.  We were extremely pleased with staff, cleanliness and breakfast.  Our room was very modern, fresh and clean.  We loved the decor  and furnishings.  The staff was very welcoming and would make a point to look up and say hi as we came and went.  We were able to walk to many locations.  The rooms were quiet and we slept well.  The breakfast buffet offered a great assortment of hot and cold food.  We have family that recently moved to Rockwall and we will tell other family and friends to stay here when they come to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r574425125-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>574425125</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful New Property </t>
+  </si>
+  <si>
+    <t>Everything smells new. Located next to river with plenty of parkingStaff friendly, efficient, and helpful Rooms spacious and cleanNice facilities- pool, exercise room, and poolBreakfast is fairly basic but served in the big great roomI would returnPictures show view from roomMoreShow less</t>
+  </si>
+  <si>
+    <t>Everything smells new. Located next to river with plenty of parkingStaff friendly, efficient, and helpful Rooms spacious and cleanNice facilities- pool, exercise room, and poolBreakfast is fairly basic but served in the big great roomI would returnPictures show view from roomMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r571947629-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -249,21 +397,9 @@
     <t>We are from the area and stay in Rockwall whenever we are back to visit family.  This is a new hotel so it is clean. The good- great area for food and lake views. Breakfast was better on the weekends vs the weekdays with more options. I highly suggest shopping at Groovys and Carols Candles while your here. Love Gloria’s restaurant which is walking distance. The bad- when AC/heat isn’t running you can hear the highway noise. Also, if your on the top floor, you can hear the hvac units running up on the roof through your bathroom vents. At least that’s what I think the noise is coming from. I will be staying here again just not on the top floor. MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>Ruth P, Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded April 25, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 25, 2018</t>
-  </si>
-  <si>
     <t>We are from the area and stay in Rockwall whenever we are back to visit family.  This is a new hotel so it is clean. The good- great area for food and lake views. Breakfast was better on the weekends vs the weekdays with more options. I highly suggest shopping at Groovys and Carols Candles while your here. Love Gloria’s restaurant which is walking distance. The bad- when AC/heat isn’t running you can hear the highway noise. Also, if your on the top floor, you can hear the hvac units running up on the roof through your bathroom vents. At least that’s what I think the noise is coming from. I will be staying here again just not on the top floor. More</t>
   </si>
   <si>
-    <t>Dealer7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r570241614-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -282,15 +418,9 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We were very impressed by the hotel, employees very helpful, everything about it, only about six months old so that helps the,beds were great, room was quiet, lake view was a bonus. Breakfast was good.More</t>
   </si>
   <si>
-    <t>LissaWood</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r561366119-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -309,7 +439,46 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>daveashuk</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r550442076-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>550442076</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>New Property - Convenient to I-30</t>
+  </si>
+  <si>
+    <t>New property in Rockwall adjacent to I-30 with friendly staff and an attractive modern lobby.  Room was comfortable and nicely furnished.  Convenient to several good restaurants and a movie theater complex.  Just beware of highway noise issues.  Will definitely stay here again my next time in the area.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r547970363-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>547970363</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Brand New Property</t>
+  </si>
+  <si>
+    <t>Brand new property. Clean, easy access. Microwave, fridge in room. Will definitely be back. Staff was friendly. Has full service bar area with Monday night football on. Directly across from the movie theater.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Ruth P, Assistant General Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Brand new property. Clean, easy access. Microwave, fridge in room. Will definitely be back. Staff was friendly. Has full service bar area with Monday night football on. Directly across from the movie theater.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r546488298-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -330,18 +499,9 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Ruth P, Assistant General Manager at Springhill Suites by Marriott Dallas Rockwall, responded to this reviewResponded December 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 25, 2017</t>
-  </si>
-  <si>
     <t>This fairly new hotel is excellent value compared to some of the nearby hotels, with large new rooms and great service. The rooms are large with a big double bed, shiny new shower/toilet/sink area, large sofa and desk space that by closing the sliding glass windows by the desk screen off the bed area. There is also a fridge/microwave and table if you want to stay in. There is a free breakfast area by reception, with a good range of hot and cold breakfast items. There is also a bar area in the evening and a small shop by reception. The hotel has a function room, a small gym, 2 internet desktops and a small laundry, powder from reception, the wash, powder and dry is about $5. Finally there is a small outdoor pool area with loungers. The hotel is situated close to the lake shopping area that has a cinema, bars and restaurants within a few minutes walk. The only downside was the adjacent Interstate that was quite noisy.More</t>
   </si>
   <si>
-    <t>Ysidro H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r542533726-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -360,9 +520,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>Gladwin G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r539967758-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -378,7 +535,34 @@
     <t>This hotel seems brand new and everything here smells brand new. Everything about this place is good, and there's nothing that'll disappoint you. I love the whole look of the interior of the hotel. Everything is clean and we'll maintained. The service is great, and most rates have breakfast included. The hotel is a little on the pricey side ($156/night when I booked it) but I think it may be because it's fairly new. Highly recommend!</t>
   </si>
   <si>
-    <t>Jana M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r532160232-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>532160232</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, clean hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean, new hotel. The building was beautiful and the view over the water was great. The rooms were very well kept and large. We did have a small issue with our reservation, but the staff tried to make it right. I would stay there again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r528985229-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>528985229</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great New Hotel </t>
+  </si>
+  <si>
+    <t>We were in town for a wedding and stayed at the SpringHill Suites. It is new and the beds were great. The breakfast buffet was good and the staff of the hotel were very helpful. They need a few more outlets beside the bed. I’m surprised that the developers of the new places don’t add extra outlets.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r525594507-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -399,9 +583,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>942bob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r518311743-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -423,9 +604,6 @@
     <t>I would have rated this place a 5, if it were not for the AC that blows direct onto the bed.  The bed us about3 feet from the AC, and there's no way to divert the cold blast of air from the AC -- it kept me up the first 2 nights.  The 2nd 2 nights I actually turned it off and slept better, even though the room temp crept up to 75 during the night.  Then, I met a guy in the elevator who mentioned the same problem -- and said he placed the suitcase stand in front of the AC -- with the suitcase and a bunch of spare pillows to divert the airflow.  That worked quite well.Aside from the AC issue, it's a GREAT place.  Clean, great staff, good location.  Plenty of restaurants in walking distance.More</t>
   </si>
   <si>
-    <t>SoldierSam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r509727764-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -442,6 +620,51 @@
   </si>
   <si>
     <t>I am a Marriot Platinum member ... I give this a solid 5/5 ... This is now our GO TO hotel at Rockwall ... I had originally given a review for this new hotel a few weeks ago and gave it a 4 out of 5 due to the fact that I was actually staying there the first day (and week) they opened and they were going through some birthing issues ... HOWEVER .. I have stayed there twice after my initial review and am now giving it a solid 5/5 at this time  .. the management and staff have fixed any issue at all that they originally had ... I highly recommend this place ... It is in the middle of everything .. there must be 100 restaurants around them .. they are right next to the water ... right off the road ... hotel is less than a month old ... the staff is phenomenal (seriously) .... excellent breakfast ... plenty of parking ... easy to find ... still has that new hotel smell ...very high speed internet ... I would and will definitely stay here again ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r508100954-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>508100954</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I stayed here with my family while our house was being painted. Our room was nice, clean, and the staff were very attentive. The free breakfast was a bonus too. This hotel is close to The Harbor in Rockwall - just wish The Harbor had more to offer. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here with my family while our house was being painted. Our room was nice, clean, and the staff were very attentive. The free breakfast was a bonus too. This hotel is close to The Harbor in Rockwall - just wish The Harbor had more to offer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d11676807-r507202226-Springhill_Suites_by_Marriott_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>507202226</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Beautiful, New, Convenient and Professional</t>
+  </si>
+  <si>
+    <t>Took a quick trip to Rockwall and wanted to stay near the lake, restaurants and shopping and this place met all of our needs. It's a brand new hotel, and the service provided was top notch. Every employee we encountered were all very nice and professional. The breakfast was complete with eggs and bacon both mornings. The pool was the perfect size and depth (not deeper than 4'6) for my 6 year old to play. There is also a great seating area with a fire pit. The bar is open until 10:00pm as is the pool. The hotel can also host meetings and events for groups up to 200, which I found to be an added bonus for this size of a hotel. Plus, if you use points it's only 10,000 per night. It was a great experience and offered a quality, affordable option for staying in Rockwall. We will return. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Took a quick trip to Rockwall and wanted to stay near the lake, restaurants and shopping and this place met all of our needs. It's a brand new hotel, and the service provided was top notch. Every employee we encountered were all very nice and professional. The breakfast was complete with eggs and bacon both mornings. The pool was the perfect size and depth (not deeper than 4'6) for my 6 year old to play. There is also a great seating area with a fire pit. The bar is open until 10:00pm as is the pool. The hotel can also host meetings and events for groups up to 200, which I found to be an added bonus for this size of a hotel. Plus, if you use points it's only 10,000 per night. It was a great experience and offered a quality, affordable option for staying in Rockwall. We will return. More</t>
   </si>
 </sst>
 </file>
@@ -946,47 +1169,43 @@
       <c r="A2" t="n">
         <v>65746</v>
       </c>
-      <c r="B2" t="n">
-        <v>35804</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1000,54 +1219,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65746</v>
       </c>
-      <c r="B3" t="n">
-        <v>177767</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1068,303 +1283,297 @@
       <c r="A4" t="n">
         <v>65746</v>
       </c>
-      <c r="B4" t="n">
-        <v>177768</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65746</v>
       </c>
-      <c r="B5" t="n">
-        <v>3878</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65746</v>
       </c>
-      <c r="B6" t="n">
-        <v>177769</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65746</v>
       </c>
-      <c r="B7" t="n">
-        <v>177770</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65746</v>
       </c>
-      <c r="B8" t="n">
-        <v>177771</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1375,61 +1584,53 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65746</v>
       </c>
-      <c r="B9" t="n">
-        <v>177772</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1443,54 +1644,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65746</v>
       </c>
-      <c r="B10" t="n">
-        <v>177773</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1501,207 +1698,1037 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65746</v>
       </c>
-      <c r="B11" t="n">
-        <v>18890</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65746</v>
       </c>
-      <c r="B12" t="n">
-        <v>177774</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65746</v>
       </c>
-      <c r="B13" t="n">
-        <v>177775</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
         <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>150</v>
+      </c>
+      <c r="X18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>150</v>
+      </c>
+      <c r="X25" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65746</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>205</v>
+      </c>
+      <c r="X27" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
